--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.2974129622387</v>
+        <v>254.6262064305523</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.5253716013909</v>
+        <v>348.3908089535383</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.3664589433967</v>
+        <v>315.140879116688</v>
       </c>
       <c r="AD2" t="n">
-        <v>223297.4129622387</v>
+        <v>254626.2064305524</v>
       </c>
       <c r="AE2" t="n">
-        <v>305525.3716013909</v>
+        <v>348390.8089535383</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.078464859973019e-06</v>
+        <v>5.204297587515908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>276366.4589433967</v>
+        <v>315140.879116688</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.4595786036774</v>
+        <v>159.6176903628479</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.764062682109</v>
+        <v>218.3959657898611</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.9893872261889</v>
+        <v>197.5525613356025</v>
       </c>
       <c r="AD3" t="n">
-        <v>128459.5786036774</v>
+        <v>159617.6903628479</v>
       </c>
       <c r="AE3" t="n">
-        <v>175764.062682109</v>
+        <v>218395.9657898611</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.286714700835292e-06</v>
+        <v>7.246903892260642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>158989.3872261889</v>
+        <v>197552.5613356025</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.2551660181712</v>
+        <v>183.356277349159</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.6904792867152</v>
+        <v>250.8761477770607</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.677914246087</v>
+        <v>226.9328803401759</v>
       </c>
       <c r="AD2" t="n">
-        <v>153255.1660181712</v>
+        <v>183356.277349159</v>
       </c>
       <c r="AE2" t="n">
-        <v>209690.4792867152</v>
+        <v>250876.1477770607</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.872513290212669e-06</v>
+        <v>6.706383692349072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.412326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>189677.914246087</v>
+        <v>226932.8803401759</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5762773661724</v>
+        <v>154.7626400431808</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.4507586097978</v>
+        <v>211.7530717527926</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.1831774372683</v>
+        <v>191.5436557820694</v>
       </c>
       <c r="AD3" t="n">
-        <v>124576.2773661724</v>
+        <v>154762.6400431808</v>
       </c>
       <c r="AE3" t="n">
-        <v>170450.7586097978</v>
+        <v>211753.0717527926</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.30270669058697e-06</v>
+        <v>7.45138875459586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.871961805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>154183.1774372683</v>
+        <v>191543.6557820693</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.8880638535554</v>
+        <v>172.1489093456805</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.242240974598</v>
+        <v>235.5417324405283</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.3222797307713</v>
+        <v>213.0619600813701</v>
       </c>
       <c r="AD2" t="n">
-        <v>144888.0638535554</v>
+        <v>172148.9093456805</v>
       </c>
       <c r="AE2" t="n">
-        <v>198242.240974598</v>
+        <v>235541.7324405283</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.891997679297796e-06</v>
+        <v>7.364497127120511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179322.2797307713</v>
+        <v>213061.9600813701</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.3565379801547</v>
+        <v>159.6758381164795</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.7278103058309</v>
+        <v>218.4755261116778</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.5748403398588</v>
+        <v>197.6245285319686</v>
       </c>
       <c r="AD2" t="n">
-        <v>131356.5379801547</v>
+        <v>159675.8381164795</v>
       </c>
       <c r="AE2" t="n">
-        <v>179727.8103058309</v>
+        <v>218475.5261116778</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167323540112562e-06</v>
+        <v>7.591958452511767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.368923611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>162574.8403398588</v>
+        <v>197624.5285319686</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.6436104610488</v>
+        <v>187.768869474746</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.8537219935337</v>
+        <v>256.9136509931113</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9210158945703</v>
+        <v>232.3941727229774</v>
       </c>
       <c r="AD2" t="n">
-        <v>152643.6104610488</v>
+        <v>187768.869474746</v>
       </c>
       <c r="AE2" t="n">
-        <v>208853.7219935337</v>
+        <v>256913.6509931113</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.552007302404747e-06</v>
+        <v>6.960789854299303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.838107638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>188921.0158945703</v>
+        <v>232394.1727229774</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.5673702779544</v>
+        <v>197.0944897480023</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.9048244479444</v>
+        <v>269.6733760683043</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.1539078691283</v>
+        <v>243.9361275453847</v>
       </c>
       <c r="AD2" t="n">
-        <v>166567.3702779544</v>
+        <v>197094.4897480023</v>
       </c>
       <c r="AE2" t="n">
-        <v>227904.8244479444</v>
+        <v>269673.3760683043</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649257582990149e-06</v>
+        <v>6.278479092092565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.692274305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>206153.9078691283</v>
+        <v>243936.1275453847</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.501673498595</v>
+        <v>155.9434521140712</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.7169264237737</v>
+        <v>213.368710921936</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.3285039721564</v>
+        <v>193.0051006164741</v>
       </c>
       <c r="AD3" t="n">
-        <v>125501.673498595</v>
+        <v>155943.4521140712</v>
       </c>
       <c r="AE3" t="n">
-        <v>171716.9264237738</v>
+        <v>213368.710921936</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.302151641313449e-06</v>
+        <v>7.401771049788653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.828559027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>155328.5039721564</v>
+        <v>193005.1006164741</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.9723025411224</v>
+        <v>204.442204472807</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.5636029854183</v>
+        <v>279.7268435130729</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.3680591216239</v>
+        <v>253.0301061673579</v>
       </c>
       <c r="AD2" t="n">
-        <v>169972.3025411224</v>
+        <v>204442.2044728071</v>
       </c>
       <c r="AE2" t="n">
-        <v>232563.6029854183</v>
+        <v>279726.8435130729</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.278575688576231e-06</v>
+        <v>6.572430774592931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.582465277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>210368.0591216239</v>
+        <v>253030.1061673579</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1395887743171</v>
+        <v>152.7681817714978</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.167459065052</v>
+        <v>209.0241659561883</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7816524455691</v>
+        <v>189.0751929246487</v>
       </c>
       <c r="AD2" t="n">
-        <v>133139.5887743171</v>
+        <v>152768.1817714978</v>
       </c>
       <c r="AE2" t="n">
-        <v>182167.459065052</v>
+        <v>209024.1659561883</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.241657475256842e-06</v>
+        <v>7.512290573097171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.091145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164781.6524455691</v>
+        <v>189075.1929246488</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.5686544960893</v>
+        <v>152.19724749327</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.3862815977384</v>
+        <v>208.2429884888747</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.0750294593462</v>
+        <v>188.3685699384259</v>
       </c>
       <c r="AD3" t="n">
-        <v>132568.6544960893</v>
+        <v>152197.24749327</v>
       </c>
       <c r="AE3" t="n">
-        <v>181386.2815977384</v>
+        <v>208242.9884888747</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.263649927913369e-06</v>
+        <v>7.551240840942856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>164075.0294593462</v>
+        <v>188368.5699384259</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8350066784736</v>
+        <v>163.8394795746756</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.801401690048</v>
+        <v>224.172404041676</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.0189521253076</v>
+        <v>202.777704427948</v>
       </c>
       <c r="AD2" t="n">
-        <v>143835.0066784736</v>
+        <v>163839.4795746756</v>
       </c>
       <c r="AE2" t="n">
-        <v>196801.401690048</v>
+        <v>224172.404041676</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048823172689109e-06</v>
+        <v>7.06079407315178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.225694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>178018.9521253076</v>
+        <v>202777.704427948</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.5184663083938</v>
+        <v>153.4397005352987</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.0034148532156</v>
+        <v>209.9429675541373</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.8739661374541</v>
+        <v>189.9063053876359</v>
       </c>
       <c r="AD3" t="n">
-        <v>123518.4663083938</v>
+        <v>153439.7005352987</v>
       </c>
       <c r="AE3" t="n">
-        <v>169003.4148532156</v>
+        <v>209942.9675541373</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303111693685453e-06</v>
+        <v>7.504251049498073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.917534722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>152873.9661374541</v>
+        <v>189906.3053876359</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.0682729179518</v>
+        <v>236.9952975434789</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.9517020967955</v>
+        <v>324.2674215934522</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.0426273704595</v>
+        <v>293.319793988854</v>
       </c>
       <c r="AD2" t="n">
-        <v>206068.2729179518</v>
+        <v>236995.2975434789</v>
       </c>
       <c r="AE2" t="n">
-        <v>281951.7020967955</v>
+        <v>324267.4215934522</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261653620958096e-06</v>
+        <v>5.544594985037984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.260850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>255042.6273704595</v>
+        <v>293319.793988854</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.2705501748096</v>
+        <v>158.1974852917856</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.1371815295007</v>
+        <v>216.4527785566089</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.517773327443</v>
+        <v>195.7948291646109</v>
       </c>
       <c r="AD3" t="n">
-        <v>127270.5501748096</v>
+        <v>158197.4852917856</v>
       </c>
       <c r="AE3" t="n">
-        <v>174137.1815295007</v>
+        <v>216452.7785566089</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297831200285465e-06</v>
+        <v>7.306028195796795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>157517.773327443</v>
+        <v>195794.8291646109</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.5746881448759</v>
+        <v>150.7910703757346</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.0262929853083</v>
+        <v>206.3189949205077</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.84483625133</v>
+        <v>186.6281996158812</v>
       </c>
       <c r="AD2" t="n">
-        <v>131574.6881448759</v>
+        <v>150791.0703757346</v>
       </c>
       <c r="AE2" t="n">
-        <v>180026.2929853082</v>
+        <v>206318.9949205077</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20629243735888e-06</v>
+        <v>7.584940641358438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>162844.83625133</v>
+        <v>186628.1996158813</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3251136956439</v>
+        <v>161.0802751940723</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4213024471931</v>
+        <v>220.3971388806302</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0112693715902</v>
+        <v>199.3627452752533</v>
       </c>
       <c r="AD2" t="n">
-        <v>133325.1136956439</v>
+        <v>161080.2751940723</v>
       </c>
       <c r="AE2" t="n">
-        <v>182421.3024471931</v>
+        <v>220397.1388806302</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01258759608361e-06</v>
+        <v>7.486205859806783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.735677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165011.2693715902</v>
+        <v>199362.7452752533</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2159620314328</v>
+        <v>174.03117862489</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.4273739611878</v>
+        <v>238.1171363082013</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.2034280954842</v>
+        <v>215.3915710185153</v>
       </c>
       <c r="AD2" t="n">
-        <v>147215.9620314328</v>
+        <v>174031.17862489</v>
       </c>
       <c r="AE2" t="n">
-        <v>201427.3739611878</v>
+        <v>238117.1363082013</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.757739661780934e-06</v>
+        <v>7.226272720148404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>182203.4280954842</v>
+        <v>215391.5710185153</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.8931622299409</v>
+        <v>236.8181551258819</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.6614226423782</v>
+        <v>324.0250475227242</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.2116307271249</v>
+        <v>293.1005517592621</v>
       </c>
       <c r="AD2" t="n">
-        <v>194893.1622299409</v>
+        <v>236818.1551258819</v>
       </c>
       <c r="AE2" t="n">
-        <v>266661.4226423782</v>
+        <v>324025.0475227242</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.874145837488887e-06</v>
+        <v>5.928211253902129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.891059027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>241211.6307271249</v>
+        <v>293100.5517592621</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.0123953806102</v>
+        <v>155.8329368295358</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.0981598030629</v>
+        <v>213.2174990340444</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.3372126219186</v>
+        <v>192.8683201789356</v>
       </c>
       <c r="AD2" t="n">
-        <v>136012.3953806102</v>
+        <v>155832.9368295358</v>
       </c>
       <c r="AE2" t="n">
-        <v>186098.1598030629</v>
+        <v>213217.4990340444</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.200619143073323e-06</v>
+        <v>7.380322129297957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.086805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>168337.2126219186</v>
+        <v>192868.3201789356</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.2197771040733</v>
+        <v>152.8651141600635</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.5947351066269</v>
+        <v>209.156793126579</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.504290212294</v>
+        <v>189.1951623440408</v>
       </c>
       <c r="AD3" t="n">
-        <v>123219.7771040733</v>
+        <v>152865.1141600635</v>
       </c>
       <c r="AE3" t="n">
-        <v>168594.7351066269</v>
+        <v>209156.793126579</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.287081624497235e-06</v>
+        <v>7.532233298407193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.984809027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>152504.290212294</v>
+        <v>189195.1623440408</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.6270235192607</v>
+        <v>221.4879688997792</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.1418622808147</v>
+        <v>303.049610408097</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.5549898105878</v>
+        <v>274.1269809236373</v>
       </c>
       <c r="AD2" t="n">
-        <v>180627.0235192608</v>
+        <v>221487.9688997792</v>
       </c>
       <c r="AE2" t="n">
-        <v>247141.8622808147</v>
+        <v>303049.610408097</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448492101161204e-06</v>
+        <v>5.896537184764968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>223554.9898105878</v>
+        <v>274126.9809236373</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6319650149271</v>
+        <v>157.3203444776017</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.263441141361</v>
+        <v>215.2526357979215</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.7274214956447</v>
+        <v>194.7092263464013</v>
       </c>
       <c r="AD3" t="n">
-        <v>126631.9650149271</v>
+        <v>157320.3444776017</v>
       </c>
       <c r="AE3" t="n">
-        <v>173263.441141361</v>
+        <v>215252.6357979215</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.293628883025312e-06</v>
+        <v>7.341626897685078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.796006944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>156727.4214956447</v>
+        <v>194709.2263464013</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.4966498619098</v>
+        <v>304.3242206623966</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.581788057575</v>
+        <v>416.3898245473596</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.2181928465855</v>
+        <v>376.650164099348</v>
       </c>
       <c r="AD2" t="n">
-        <v>255496.6498619099</v>
+        <v>304324.2206623966</v>
       </c>
       <c r="AE2" t="n">
-        <v>349581.788057575</v>
+        <v>416389.8245473597</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259451690735459e-06</v>
+        <v>4.843045655142879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>316218.1928465855</v>
+        <v>376650.164099348</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.2508800126863</v>
+        <v>160.3856119379241</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.9514885303259</v>
+        <v>219.4466699671888</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.6817324320515</v>
+        <v>198.5029877809189</v>
       </c>
       <c r="AD2" t="n">
-        <v>132250.8800126863</v>
+        <v>160385.6119379241</v>
       </c>
       <c r="AE2" t="n">
-        <v>180951.4885303259</v>
+        <v>219446.6699671888</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096654970375819e-06</v>
+        <v>7.547810402516032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.536024305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>163681.7324320515</v>
+        <v>198502.9877809189</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.9292093526791</v>
+        <v>151.3568273430346</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.5113645421963</v>
+        <v>207.093088562603</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.283613259631</v>
+        <v>187.3284148472225</v>
       </c>
       <c r="AD2" t="n">
-        <v>131929.2093526791</v>
+        <v>151356.8273430346</v>
       </c>
       <c r="AE2" t="n">
-        <v>180511.3645421963</v>
+        <v>207093.0885626031</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.242948835434237e-06</v>
+        <v>7.579718451392689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>163283.6132596309</v>
+        <v>187328.4148472225</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.4517728935188</v>
+        <v>151.8793908838744</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.2263590326492</v>
+        <v>207.808083053056</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.9303696794163</v>
+        <v>187.9751712670079</v>
       </c>
       <c r="AD3" t="n">
-        <v>132451.7728935188</v>
+        <v>151879.3908838744</v>
       </c>
       <c r="AE3" t="n">
-        <v>181226.3590326493</v>
+        <v>207808.083053056</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241640742971869e-06</v>
+        <v>7.577381639671008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>163930.3696794164</v>
+        <v>187975.1712670079</v>
       </c>
     </row>
   </sheetData>
